--- a/v11/XRay/ProblemDefinition/XRayInput_Hoh.xlsx
+++ b/v11/XRay/ProblemDefinition/XRayInput_Hoh.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lplcloud-my.sharepoint.com/personal/lpl-team_lpl-tum_com/Documents/LPL-Intern/06_Themen/10_SolutionSpaceEngineering/30_Tools/01_X-Ray_Tool/11_lpl-gen-1_matlab/XRay_MAIN/XRay/ProblemDefinition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Folder\Ali Documents\Job Documents\Hiwi\Hiwi - LPL - Eduardo\xray-matlab\v11\XRay\ProblemDefinition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{9B2BCFF8-A396-4C9E-B8D9-A14E14D439A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBED60B-70DD-4AD5-A7F9-E85D022C7B30}"/>
   <bookViews>
-    <workbookView xWindow="-38508" yWindow="-17004" windowWidth="38616" windowHeight="21096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38505" yWindow="-17010" windowWidth="38610" windowHeight="21090" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Design Variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Desired Plots" sheetId="5" r:id="rId5"/>
     <sheet name="Other Options" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BA71F8EF-A7E2-4FE5-BA04-F995C5497FB4}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5DA7A7AD-B1CF-4198-8406-D644648CD8E9}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E5796459-F19B-460B-9E4D-1D4FF50D4AFC}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{92699268-B0E1-4599-A0E0-52292AD6D283}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{252079B6-25F2-4D2B-AA27-BDD8B0E1269A}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{1CAA8275-F3D1-48EA-9629-DBDBACD5C6F5}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,12 +183,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6471C63C-74B3-445D-93FA-C246F3EAC121}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2E99826A-B36D-4845-AC55-7FC4010D1F35}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C796C835-B37E-43CB-B971-58C30D4FA056}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{194453BA-BE72-4918-AD7D-E696C2D9204B}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,12 +289,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3E23D5C6-9E35-4A50-83B5-AC4B81FD7EEE}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{94A140FC-6934-400A-96D5-6B518CE7CD1A}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AD11B533-8734-44BC-B2FA-D7A478D87875}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9AD51EFF-4E0B-40B1-BDBE-FC388A272C3A}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F90B6CBB-4365-4A3F-B287-AAB4B38FB65C}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{03B85E16-D0F1-43EB-BF81-FE515D10FB4B}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{A46DDC2E-694C-4351-B899-800300521271}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D324FFBA-A24D-49F4-A488-CD9906A8129C}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Variable Name</t>
   </si>
@@ -630,12 +629,18 @@
   </si>
   <si>
     <t>Fibre direction of the third layer</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,30 +677,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -710,18 +697,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -1006,43 +990,43 @@
       <selection activeCell="F24" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" customWidth="1"/>
-    <col min="5" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1058,12 +1042,12 @@
       <c r="E2">
         <v>-90</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>90</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1079,11 +1063,11 @@
       <c r="E3">
         <v>-90</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1099,18 +1083,18 @@
       <c r="E4">
         <v>-90</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F7" s="5"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1121,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE1BD41-DE87-4150-A6EC-3B18C7CF1676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1129,28 +1113,28 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1161,52 +1145,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709C6B67-3D9E-497F-8932-B0B409129728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1228,9 +1212,11 @@
       <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1249,10 +1235,9 @@
       <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H4" s="3"/>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1261,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DAE241-1BAE-4855-9804-9F91087ADF7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -1269,33 +1254,33 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1305,27 +1290,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E99E2A-BCCF-4EEE-8C70-A755E6A22D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1341,7 +1326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1355,28 +1340,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1568A141-962D-45E3-955C-7581EF234C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1384,7 +1369,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1392,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1408,11 +1393,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
